--- a/biology/Botanique/Brachystephanus_oreacanthus/Brachystephanus_oreacanthus.xlsx
+++ b/biology/Botanique/Brachystephanus_oreacanthus/Brachystephanus_oreacanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachystephanus oreacanthus Champl. est une espèce de plantes à fleur de la famille des Acanthaceae et du genre Brachystephanus, présente principalement en Guinée et au nord-ouest du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachystephanus oreacanthus Champl. est une espèce de plantes à fleur de la famille des Acanthaceae et du genre Brachystephanus, présente principalement en Guinée et au nord-ouest du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe pouvant atteindre 100 cm de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe pouvant atteindre 100 cm de hauteur.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Cameroun elle n'a été observée que par René Letouzey en 1974, à proximité de la Menchum, à 15 km au sud de Wum (région du Nord-Ouest), le long d'une route forestière[2].
-En Guinée elle a été collectée sur un tout petit territoire non loin du projet minier de Simandou (mont Nimba), mais des efforts ont été faits pour sa préservation et la floraison a encore été observée en 2008 et 2009[2].
-Elle est néanmoins classée « vulnérable » (VU) sur la liste rouge de l'UICN[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Cameroun elle n'a été observée que par René Letouzey en 1974, à proximité de la Menchum, à 15 km au sud de Wum (région du Nord-Ouest), le long d'une route forestière.
+En Guinée elle a été collectée sur un tout petit territoire non loin du projet minier de Simandou (mont Nimba), mais des efforts ont été faits pour sa préservation et la floraison a encore été observée en 2008 et 2009.
+Elle est néanmoins classée « vulnérable » (VU) sur la liste rouge de l'UICN.
 </t>
         </is>
       </c>
